--- a/tabela_pacotes.xlsx
+++ b/tabela_pacotes.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="8_{901F812A-52DB-46EF-93CD-92CDD4D8FCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB96724F-75A2-4E9F-A810-92E503D20BBB}"/>
   <bookViews>
-    <workbookView xWindow="11050" yWindow="410" windowWidth="11760" windowHeight="9630" xr2:uid="{FE61C511-017D-480C-8D5B-8245E646A397}"/>
+    <workbookView xWindow="5560" yWindow="1000" windowWidth="11760" windowHeight="9630" xr2:uid="{FE61C511-017D-480C-8D5B-8245E646A397}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78CE7A5-52DB-428D-98B7-522C5DFCDA99}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
